--- a/Document/Test Plan/TestPlan.xlsx
+++ b/Document/Test Plan/TestPlan.xlsx
@@ -5,20 +5,24 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chung1991/Desktop/Test Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Data/Project/WebEnterprise/Document/Test Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="24480" windowHeight="14680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Log" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Log" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Log (3 April)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Log'!$A$1:$J$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Log'!$A$1:$J$16</definedName>
+    <definedName name="Z_71F47F7B_5156_2644_A849_9490B9894AE9_.wvu.FilterData" localSheetId="0" hidden="1">'Test Log'!$A$1:$J$16</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{71F47F7B-5156-2644-A849-9490B9894AE9}" mergeInterval="0" personalView="1" windowWidth="1224" windowHeight="561" tabRatio="500" activeSheetId="2"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,22 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>What is being tested</t>
-  </si>
-  <si>
-    <t>How</t>
-  </si>
-  <si>
-    <t>Test data used</t>
-  </si>
-  <si>
-    <t>Expected Results</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -208,9 +197,6 @@
   </si>
   <si>
     <t>Attempt to authorized page (all of page except login page)</t>
-  </si>
-  <si>
-    <t>Verified</t>
   </si>
   <si>
     <t>Many page still not completed</t>
@@ -326,6 +312,70 @@
   <si>
     <t>1) Login with Admin account
 2) Click on Courses</t>
+  </si>
+  <si>
+    <t>Admin: admin/admin
+CL: CLAccount/123456
+CM: CMAccount/123456
+DLT: DLTccount/123456
+PVC: PVCccount/123456</t>
+  </si>
+  <si>
+    <t>Test Log</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>DLT &amp; PVC roles can't see list of CMR:
+Folder: Retest_3_April/bug4_dlt_pvc</t>
+  </si>
+  <si>
+    <t>Still happens with List of CMR:
+File: Retest_3_April/bug14_cmr_list.png</t>
+  </si>
+  <si>
+    <t>Because DLT &amp; PVC roles can't see list of CMR, can't execute</t>
+  </si>
+  <si>
+    <t>Verify confirmation before delete an CMR</t>
+  </si>
+  <si>
+    <t>1) Login with CL account
+2) Go to CMR management page
+3) Try to delete CMR whose status = Rejected</t>
+  </si>
+  <si>
+    <t>No confirmation was displayed</t>
+  </si>
+  <si>
+    <t>Currently, there is no validation</t>
+  </si>
+  <si>
+    <t>Verify page is responsive in
+- View list CMR
+- View list user
+- View list of Course
+- View list Annual Course</t>
+  </si>
+  <si>
+    <t>List of CMR in CL roles still not affected
+File: Retest_3_April/bug11_list_cmr_of_cl.png</t>
+  </si>
+  <si>
+    <t>Verify EDIT capacity of admin</t>
+  </si>
+  <si>
+    <t>1) Login with Admin account
+2) Go to User List
+3) Verify visibility of "Edit" button</t>
+  </si>
+  <si>
+    <t>User "Admin" is impossible to edit</t>
+  </si>
+  <si>
+    <t>Admin is still editable
+File: Retest_3_April/bug17_edit_admin.png</t>
   </si>
 </sst>
 </file>
@@ -400,7 +450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -417,54 +467,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -489,7 +499,28 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -497,6 +528,1596 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0B2D6E22-4D53-EF41-BDAA-47E473448A7B}" diskRevisions="1" revisionId="65" version="11">
+  <header guid="{DECE7C86-8A06-5149-B59F-AA6EC9B63FA7}" dateTime="2016-04-03T14:46:33" maxSheetId="3" userName="Microsoft Office User" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F287833F-FC64-2B42-8F51-E8C01DC309C3}" dateTime="2016-04-03T14:47:27" maxSheetId="3" userName="Microsoft Office User" r:id="rId2" minRId="1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C555515B-5F87-1D4B-AF80-BEF944696FD8}" dateTime="2016-04-03T14:49:36" maxSheetId="3" userName="Microsoft Office User" r:id="rId3" minRId="2" maxRId="26">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{120E6D6F-5047-DA42-AE0A-5A9BB1DDBD7B}" dateTime="2016-04-03T14:54:01" maxSheetId="3" userName="Microsoft Office User" r:id="rId4" minRId="27" maxRId="32">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{70CC5088-1362-E340-818E-ADE9772C8DD0}" dateTime="2016-04-03T14:55:28" maxSheetId="3" userName="Microsoft Office User" r:id="rId5" minRId="34" maxRId="35">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E32A46AD-8A68-E34E-9908-69501C0B0770}" dateTime="2016-04-03T15:23:34" maxSheetId="3" userName="Microsoft Office User" r:id="rId6" minRId="36" maxRId="39">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FD6DB5CB-EF9B-5F47-ACC8-9DDED3041C7A}" dateTime="2016-04-03T15:37:23" maxSheetId="3" userName="Microsoft Office User" r:id="rId7" minRId="40" maxRId="48">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DDAA7AAA-7EF7-6A44-9D08-D8CC09D2A007}" dateTime="2016-04-03T15:40:08" maxSheetId="3" userName="Microsoft Office User" r:id="rId8" minRId="49">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{489CD624-AE5E-824B-A812-0A69739AD2D3}" dateTime="2016-04-03T15:52:44" maxSheetId="3" userName="Microsoft Office User" r:id="rId9" minRId="50" maxRId="55">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{289C85C3-E1CC-F442-BD21-F51D0EB98798}" dateTime="2016-04-03T15:58:30" maxSheetId="3" userName="Microsoft Office User" r:id="rId10" minRId="56" maxRId="63">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0B2D6E22-4D53-EF41-BDAA-47E473448A7B}" dateTime="2016-04-03T16:00:42" maxSheetId="3" userName="Microsoft Office User" r:id="rId11" minRId="64" maxRId="65">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="2" sqref="G11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="56" sId="2">
+    <nc r="G12" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="57" sId="2">
+    <nc r="B17" t="inlineStr">
+      <is>
+        <t>Users</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="58" sId="2">
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>Admin: admin/admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G17" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="59" sId="2">
+    <nc r="A17">
+      <v>17</v>
+    </nc>
+  </rcc>
+  <rcc rId="60" sId="2">
+    <nc r="C17" t="inlineStr">
+      <is>
+        <t>Verify EDIT capacity of admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="61" sId="2">
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>1) Login with Admin account_x000D_2) Go to User List_x000D_3) Verify visibility of "Edit" button</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="62" sId="2">
+    <nc r="F17" t="inlineStr">
+      <is>
+        <t>User "Admin" is impossible to edit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="63" sId="2">
+    <nc r="G17" t="inlineStr">
+      <is>
+        <t>Admin is still editable_x000D__x000D_File: Retest_3_April/bug17_edit_admin.png</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="64" sId="2">
+    <nc r="G13" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G13">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="65" sId="2">
+    <nc r="G15" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="2">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>Admin: admin/admin_x000D_CL: CLAccount/123456_x000D_CM: CMAccount/123456_x000D_DLT: ???_x000D_PVC: ???</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>Admin: admin/admin_x000D_CL: CLAccount/123456_x000D_CM: CMAccount/123456_x000D_DLT: DLTccount/123456_x000D_PVC: PVCccount/123456</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2" sId="2">
+    <oc r="G2" t="inlineStr">
+      <is>
+        <t>DLT account and PVC account are not provided</t>
+      </is>
+    </oc>
+    <nc r="G2"/>
+  </rcc>
+  <rcc rId="3" sId="2">
+    <oc r="G3" t="inlineStr">
+      <is>
+        <t>Verified</t>
+      </is>
+    </oc>
+    <nc r="G3"/>
+  </rcc>
+  <rcc rId="4" sId="2">
+    <oc r="G4" t="inlineStr">
+      <is>
+        <t>Many page still not completed</t>
+      </is>
+    </oc>
+    <nc r="G4"/>
+  </rcc>
+  <rcc rId="5" sId="2">
+    <oc r="G5" t="inlineStr">
+      <is>
+        <t>Can't create CMR because can't take annual course for CL</t>
+      </is>
+    </oc>
+    <nc r="G5"/>
+  </rcc>
+  <rcc rId="6" sId="2">
+    <oc r="G6" t="inlineStr">
+      <is>
+        <t>Can't create CMR because can't take annual course for CL</t>
+      </is>
+    </oc>
+    <nc r="G6"/>
+  </rcc>
+  <rcc rId="7" sId="2">
+    <oc r="G7" t="inlineStr">
+      <is>
+        <t>Can't create CMR because can't take annual course for CL</t>
+      </is>
+    </oc>
+    <nc r="G7"/>
+  </rcc>
+  <rcc rId="8" sId="2">
+    <oc r="G8" t="inlineStr">
+      <is>
+        <t>Can't create CMR because can't take annual course for CL</t>
+      </is>
+    </oc>
+    <nc r="G8"/>
+  </rcc>
+  <rcc rId="9" sId="2">
+    <oc r="G9" t="inlineStr">
+      <is>
+        <t>Can't create CMR because can't take annual course for CL</t>
+      </is>
+    </oc>
+    <nc r="G9"/>
+  </rcc>
+  <rcc rId="10" sId="2">
+    <oc r="G10" t="inlineStr">
+      <is>
+        <t>Can't create CMR because can't take annual course for CL</t>
+      </is>
+    </oc>
+    <nc r="G10"/>
+  </rcc>
+  <rcc rId="11" sId="2">
+    <oc r="G11" t="inlineStr">
+      <is>
+        <t>Can't create CMR because can't take annual course for CL</t>
+      </is>
+    </oc>
+    <nc r="G11"/>
+  </rcc>
+  <rcc rId="12" sId="2">
+    <oc r="G12" t="inlineStr">
+      <is>
+        <t>No responsive</t>
+      </is>
+    </oc>
+    <nc r="G12"/>
+  </rcc>
+  <rcc rId="13" sId="2">
+    <oc r="G13" t="inlineStr">
+      <is>
+        <t>Delete button visibility</t>
+      </is>
+    </oc>
+    <nc r="G13"/>
+  </rcc>
+  <rcc rId="14" sId="2">
+    <oc r="G14" t="inlineStr">
+      <is>
+        <t>Confirmation box is not shown</t>
+      </is>
+    </oc>
+    <nc r="G14"/>
+  </rcc>
+  <rcc rId="15" sId="2">
+    <oc r="G15" t="inlineStr">
+      <is>
+        <t>Annual Course of CL</t>
+      </is>
+    </oc>
+    <nc r="G15"/>
+  </rcc>
+  <rcc rId="16" sId="2">
+    <oc r="H15" t="inlineStr">
+      <is>
+        <t>CMR of CL</t>
+      </is>
+    </oc>
+    <nc r="H15"/>
+  </rcc>
+  <rcc rId="17" sId="2">
+    <oc r="I15" t="inlineStr">
+      <is>
+        <t>List of user ain't tested because there is atleast a user is Admin</t>
+      </is>
+    </oc>
+    <nc r="I15"/>
+  </rcc>
+  <rcc rId="18" sId="2">
+    <oc r="J15" t="inlineStr">
+      <is>
+        <t>List of course ain't tested because not be implemented yet</t>
+      </is>
+    </oc>
+    <nc r="J15"/>
+  </rcc>
+  <rcc rId="19" sId="2">
+    <oc r="G16" t="inlineStr">
+      <is>
+        <t>Click on hyperlink to enter, but not response</t>
+      </is>
+    </oc>
+    <nc r="G16"/>
+  </rcc>
+  <rfmt sheetId="2" sqref="G2:J16">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="20" sId="2">
+    <oc r="A3">
+      <v>2</v>
+    </oc>
+    <nc r="A3"/>
+  </rcc>
+  <rcc rId="21" sId="2">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>Authentication</t>
+      </is>
+    </oc>
+    <nc r="B3"/>
+  </rcc>
+  <rcc rId="22" sId="2">
+    <oc r="C3" t="inlineStr">
+      <is>
+        <t>Login failed</t>
+      </is>
+    </oc>
+    <nc r="C3"/>
+  </rcc>
+  <rcc rId="23" sId="2">
+    <oc r="D3" t="inlineStr">
+      <is>
+        <t>1) Enter into Username textfield_x000D_2) Enter into Password textfield_x000D_3) Click on Submit button</t>
+      </is>
+    </oc>
+    <nc r="D3"/>
+  </rcc>
+  <rcc rId="24" sId="2">
+    <oc r="E3" t="inlineStr">
+      <is>
+        <t>Any invalid username/password account</t>
+      </is>
+    </oc>
+    <nc r="E3"/>
+  </rcc>
+  <rcc rId="25" sId="2">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <t>Message is shown to prompt re-check entered info</t>
+      </is>
+    </oc>
+    <nc r="F3"/>
+  </rcc>
+  <rrc rId="26" sId="2" ref="A3:XFD3" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A3:XFD3" start="0" length="0">
+      <dxf>
+        <alignment wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A3">
+        <v>2</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="B3" t="inlineStr">
+        <is>
+          <t>Authentication</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="C3" t="inlineStr">
+        <is>
+          <t>Login failed</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="D3" t="inlineStr">
+        <is>
+          <t>1) Enter into Username textfield_x000D_2) Enter into Password textfield_x000D_3) Click on Submit button</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="E3" t="inlineStr">
+        <is>
+          <t>Any invalid username/password account</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="F3" t="inlineStr">
+        <is>
+          <t>Message is shown to prompt re-check entered info</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="2" sqref="G3" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="H3" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="I3" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="J3" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="27" sId="2" ref="G1:G1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="G1:G1048576" start="0" length="0">
+      <dxf>
+        <alignment wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" s="1" dxf="1">
+      <nc r="G1" t="inlineStr">
+        <is>
+          <t>Run log</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="14"/>
+          <color theme="3"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <border outline="0">
+          <bottom style="thick">
+            <color theme="4"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="2" sqref="G2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G3" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G4" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G5" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G6" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G7" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G8" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G9" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G10" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" s="1" sqref="G11" start="0" length="0">
+      <dxf>
+        <font>
+          <u/>
+          <sz val="14"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" s="1" sqref="G12" start="0" length="0">
+      <dxf>
+        <font>
+          <u/>
+          <sz val="14"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G13" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" s="1" sqref="G14" start="0" length="0">
+      <dxf>
+        <font>
+          <u/>
+          <sz val="14"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G15" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="28" sId="2" ref="G1:G1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="G1:G1048576" start="0" length="0">
+      <dxf>
+        <alignment wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" s="1" dxf="1">
+      <nc r="G1" t="inlineStr">
+        <is>
+          <t>Run log</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="14"/>
+          <color theme="3"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <border outline="0">
+          <bottom style="thick">
+            <color theme="4"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="2" sqref="G2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G3" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G4" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G5" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G6" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G7" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G8" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G9" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G10" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" s="1" sqref="G11" start="0" length="0">
+      <dxf>
+        <font>
+          <u/>
+          <sz val="14"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" s="1" sqref="G12" start="0" length="0">
+      <dxf>
+        <font>
+          <u/>
+          <sz val="14"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G13" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" s="1" sqref="G14" start="0" length="0">
+      <dxf>
+        <font>
+          <u/>
+          <sz val="14"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G15" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="29" sId="2" ref="G1:G1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="G1:G1048576" start="0" length="0">
+      <dxf>
+        <alignment wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G1" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G3" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G4" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G5" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G6" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G7" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G8" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G9" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G10" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G12" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G13" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" s="1" sqref="G14" start="0" length="0">
+      <dxf>
+        <font>
+          <u/>
+          <sz val="14"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G15" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="30" sId="2" ref="G1:G1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="G1:G1048576" start="0" length="0">
+      <dxf>
+        <alignment wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G1" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G3" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G4" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G5" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G6" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G7" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G8" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G9" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G10" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G11" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G12" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G13" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G14" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="G15" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rfmt sheetId="2" s="1" sqref="G1" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="31" sId="2">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Test Log</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="2">
+    <nc r="G14" t="inlineStr">
+      <is>
+        <t>1) Still happens with List of CMR:_x000D__x000D_Retest_3_April/bug14_cmr_list.png</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{71F47F7B-5156-2644-A849-9490B9894AE9}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_71F47F7B_5156_2644_A849_9490B9894AE9_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Test Log'!$A$1:$J$16</formula>
+    <oldFormula>'Test Log'!$A$1:$J$16</oldFormula>
+  </rdn>
+  <rcv guid="{71F47F7B-5156-2644-A849-9490B9894AE9}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="34" sId="2">
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="35" sId="1">
+    <oc r="G3" t="inlineStr">
+      <is>
+        <t>Verified</t>
+      </is>
+    </oc>
+    <nc r="G3" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="36" sId="2" odxf="1" dxf="1">
+    <nc r="G3" t="inlineStr">
+      <is>
+        <t>Many page still not completed</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="G14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="37" sId="2" xfDxf="1" dxf="1">
+    <nc r="G4" t="inlineStr">
+      <is>
+        <t>bug4_dlt_pvc</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="38" sId="2">
+    <nc r="G4" t="inlineStr">
+      <is>
+        <t>DLT &amp; PVC roles can't see list of CMR:_x000D__x000D_Folder: Retest_3_April/bug4_dlt_pvc</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="39" sId="2">
+    <oc r="G14" t="inlineStr">
+      <is>
+        <t>1) Still happens with List of CMR:_x000D__x000D_Retest_3_April/bug14_cmr_list.png</t>
+      </is>
+    </oc>
+    <nc r="G14" t="inlineStr">
+      <is>
+        <t>Still happens with List of CMR:_x000D__x000D_File: Retest_3_April/bug14_cmr_list.png</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="40" sId="2">
+    <nc r="G5" t="inlineStr">
+      <is>
+        <t>Because DLT &amp; PVC roles can't see list of CMR, can't execute</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rrc rId="41" sId="2" eol="1" ref="A16:XFD16" action="insertRow"/>
+  <rcc rId="42" sId="2">
+    <nc r="A16">
+      <v>16</v>
+    </nc>
+  </rcc>
+  <rcc rId="43" sId="2">
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>CMR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="2">
+    <nc r="C16" t="inlineStr">
+      <is>
+        <t>Verify confirmation before delete an CMR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="45" sId="2">
+    <nc r="D16" t="inlineStr">
+      <is>
+        <t>1) Login with CL account_x000D_2) Go to CMR management page_x000D_3) Try to delete CMR whose status = Rejected</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="A16:F27" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="46" sId="2">
+    <nc r="E16" t="inlineStr">
+      <is>
+        <t>CL: CLAccount/123456</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="47" sId="2">
+    <nc r="F16" t="inlineStr">
+      <is>
+        <t>Confirmation box must be displayed before perform action</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="48" sId="2">
+    <nc r="G16" t="inlineStr">
+      <is>
+        <t>No confirmation was displayed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G16" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="G16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="2" sqref="G6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="49" sId="2">
+    <nc r="G6" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="50" sId="2">
+    <nc r="G7" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="51" sId="2">
+    <nc r="G8" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="52" sId="2">
+    <nc r="G9" t="inlineStr">
+      <is>
+        <t>Currently, there is no validation</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="53" sId="2">
+    <nc r="G10" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="54" sId="2">
+    <oc r="C11" t="inlineStr">
+      <is>
+        <t>Verify page is responsive in_x000D__x000D_- View list CMR_x000D_- View list user_x000D_- View list Annual Course</t>
+      </is>
+    </oc>
+    <nc r="C11" t="inlineStr">
+      <is>
+        <t>Verify page is responsive in_x000D__x000D_- View list CMR_x000D_- View list user_x000D_- View list of Course_x000D_- View list Annual Course</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="2">
+    <nc r="G11" t="inlineStr">
+      <is>
+        <t>List of CMR in CL roles still not affected_x000D__x000D_File: Retest_3_April/bug11_list_cmr_of_cl.png</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -762,484 +2383,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="19.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54" style="4" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="153" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="95" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="153" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="G3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="38" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="114" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="114" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="95" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="E7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="152" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="247" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="114" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="95" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="95" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="76" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="152" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="38" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="38" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="114" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="114" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="152" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="247" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="114" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="95" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="95" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="76" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="57" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="152" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="38" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J16"/>
+  <customSheetViews>
+    <customSheetView guid="{71F47F7B-5156-2644-A849-9490B9894AE9}" showAutoFilter="1">
+      <selection sqref="A1:XFD1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+      <autoFilter ref="A1:J16"/>
+    </customSheetView>
+  </customSheetViews>
   <hyperlinks>
     <hyperlink ref="G12" r:id="rId1"/>
     <hyperlink ref="G13" r:id="rId2"/>
@@ -1249,4 +2836,500 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="153" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="152" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="247" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="76" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="133" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{71F47F7B-5156-2644-A849-9490B9894AE9}" topLeftCell="D12">
+      <selection activeCell="G14" sqref="G14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/Test Plan/TestPlan.xlsx
+++ b/Document/Test Plan/TestPlan.xlsx
@@ -2117,7 +2117,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{0B2D6E22-4D53-EF41-BDAA-47E473448A7B}" name="Microsoft Office User" id="-296978072" dateTime="2016-04-05T13:38:50"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Document/Test Plan/TestPlan.xlsx
+++ b/Document/Test Plan/TestPlan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Data/Project/WebEnterprise/Document/Test Plan/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24480" windowHeight="14680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Log" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Log'!$A$1:$J$16</definedName>
     <definedName name="Z_71F47F7B_5156_2644_A849_9490B9894AE9_.wvu.FilterData" localSheetId="0" hidden="1">'Test Log'!$A$1:$J$16</definedName>
+    <definedName name="Z_A2A0AA84_F75F_4FC7_A6E6_343B763F1E83_.wvu.FilterData" localSheetId="0" hidden="1">'Test Log'!$A$1:$J$16</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Mr Dung - Personal View" guid="{A2A0AA84-F75F-4FC7-A6E6-343B763F1E83}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="543" tabRatio="500" activeSheetId="2"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{71F47F7B-5156-2644-A849-9490B9894AE9}" mergeInterval="0" personalView="1" windowWidth="1224" windowHeight="561" tabRatio="500" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
@@ -499,28 +496,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -531,7 +507,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0B2D6E22-4D53-EF41-BDAA-47E473448A7B}" diskRevisions="1" revisionId="65" version="11">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{054F5775-B43D-4899-A7A5-23F3C4D92666}" diskRevisions="1" revisionId="66" version="12">
   <header guid="{DECE7C86-8A06-5149-B59F-AA6EC9B63FA7}" dateTime="2016-04-03T14:46:33" maxSheetId="3" userName="Microsoft Office User" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -598,6 +574,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{054F5775-B43D-4899-A7A5-23F3C4D92666}" dateTime="2016-04-06T20:40:39" maxSheetId="3" userName="Mr Dung" r:id="rId12">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -740,6 +722,15 @@
       </fill>
     </dxf>
   </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_A2A0AA84_F75F_4FC7_A6E6_343B763F1E83_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Test Log'!$A$1:$J$16</formula>
+  </rdn>
+  <rcv guid="{A2A0AA84-F75F-4FC7-A6E6-343B763F1E83}" action="add"/>
 </revisions>
 </file>
 
@@ -2377,7 +2368,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2391,19 +2382,19 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="41.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2420,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="153" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="150.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2455,7 +2446,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2481,7 +2472,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2507,7 +2498,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="114" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2533,7 +2524,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="114" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2559,7 +2550,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2585,7 +2576,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="152" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="150" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2611,7 +2602,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="247" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2637,7 +2628,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="114" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2663,7 +2654,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2687,7 +2678,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2711,7 +2702,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="76" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2737,7 +2728,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2763,7 +2754,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="152" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="150" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2793,7 +2784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2822,6 +2813,12 @@
   </sheetData>
   <autoFilter ref="A1:J16"/>
   <customSheetViews>
+    <customSheetView guid="{A2A0AA84-F75F-4FC7-A6E6-343B763F1E83}" showAutoFilter="1" topLeftCell="C5">
+      <selection activeCell="G4" sqref="G4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+      <autoFilter ref="A1:J16"/>
+    </customSheetView>
     <customSheetView guid="{71F47F7B-5156-2644-A849-9490B9894AE9}" showAutoFilter="1">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2844,23 +2841,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="41.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2883,7 +2880,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="153" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="150.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2906,7 +2903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -2929,7 +2926,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -2952,7 +2949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -2975,7 +2972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -2998,7 +2995,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="152" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="150" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -3021,7 +3018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="247" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -3044,7 +3041,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -3067,7 +3064,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -3088,7 +3085,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -3109,7 +3106,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="76" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -3132,7 +3129,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -3155,7 +3152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="133" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -3176,7 +3173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -3199,7 +3196,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -3222,7 +3219,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -3245,7 +3242,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3253,7 +3250,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3261,7 +3258,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3269,7 +3266,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3277,7 +3274,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3285,7 +3282,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3293,7 +3290,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3301,7 +3298,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3309,7 +3306,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3317,7 +3314,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3327,6 +3324,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{A2A0AA84-F75F-4FC7-A6E6-343B763F1E83}" scale="70" topLeftCell="A13">
+      <selection activeCell="G14" sqref="G14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{71F47F7B-5156-2644-A849-9490B9894AE9}" topLeftCell="D12">
       <selection activeCell="G14" sqref="G14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Test Plan/TestPlan.xlsx
+++ b/Document/Test Plan/TestPlan.xlsx
@@ -2117,9 +2117,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{0B2D6E22-4D53-EF41-BDAA-47E473448A7B}" name="Microsoft Office User" id="-296978072" dateTime="2016-04-05T13:38:50"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Document/Test Plan/TestPlan.xlsx
+++ b/Document/Test Plan/TestPlan.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24480" windowHeight="14680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24480" windowHeight="12760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Log" sheetId="1" r:id="rId1"/>
     <sheet name="Test Log (3 April)" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Log (13 April)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Log'!$A$1:$J$16</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -499,28 +500,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -531,7 +511,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0B2D6E22-4D53-EF41-BDAA-47E473448A7B}" diskRevisions="1" revisionId="65" version="11">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1838C403-2073-B345-AF2A-C4DFE7AC6FD9}" diskRevisions="1" revisionId="182" version="12">
   <header guid="{DECE7C86-8A06-5149-B59F-AA6EC9B63FA7}" dateTime="2016-04-03T14:46:33" maxSheetId="3" userName="Microsoft Office User" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -598,6 +578,13 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{1838C403-2073-B345-AF2A-C4DFE7AC6FD9}" dateTime="2016-04-20T18:44:28" maxSheetId="4" userName="Microsoft Office User" r:id="rId12" minRId="66" maxRId="182">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -735,6 +722,4090 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="66" sheetId="3" name="[TestPlan.xlsx]Sheet1" sheetPosition="2"/>
+  <rcc rId="67" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="68" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Module</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="69" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>Test-case</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="70" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>Step</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="71" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>Data</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="72" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>Expected Result</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="73" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Test Log</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A1:XFD1" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="74" sId="3" odxf="1" dxf="1">
+    <nc r="A2">
+      <v>1</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="75" sId="3" odxf="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>Authentication</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="76" sId="3" odxf="1" dxf="1">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>Redirect to default page after login success._x000D__x000D_- Admin_x000D_- CL_x000D_- CM_x000D_- DLT_x000D_- PVC</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="77" sId="3" odxf="1" dxf="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>1) Enter into Username textfield_x000D_2) Enter into Password textfield_x000D_3) Click on Submit button</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="78" sId="3" odxf="1" dxf="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>Admin: admin/admin_x000D_CL: CLAccount/123456_x000D_CM: CMAccount/123456_x000D_DLT: DLTccount/123456_x000D_PVC: PVCccount/123456</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="79" sId="3" odxf="1" dxf="1">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>Default page is displayed for each privellges</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="80" sId="3" odxf="1" dxf="1">
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A2:XFD2" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="81" sId="3" odxf="1" dxf="1">
+    <nc r="A3">
+      <v>3</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="82" sId="3" odxf="1" dxf="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>Authentication</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="83" sId="3" odxf="1" dxf="1">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>Attempt to authorized page (all of page except login page)</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="84" sId="3" odxf="1" dxf="1">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Enter valid urls to browser</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="85" sId="3" odxf="1" dxf="1">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>Provide later</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="86" sId="3" odxf="1" dxf="1">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>Redirect to login page</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="G3" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A3:XFD3" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="87" sId="3" odxf="1" dxf="1">
+    <nc r="A4">
+      <v>4</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="88" sId="3" odxf="1" dxf="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="89" sId="3" odxf="1" dxf="1">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>View list CMR belong to_x000D__x000D_- CL_x000D_- CM_x000D_- DLT_x000D_- PVC</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="90" sId="3" odxf="1" dxf="1">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>Go to manage CMRs page</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="91" sId="3" odxf="1" dxf="1">
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>CL: CLAccount/123456_x000D_CM: CMAccount/123456_x000D_DLT: ???_x000D_PVC: ???</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="92" sId="3" odxf="1" dxf="1">
+    <nc r="F4" t="inlineStr">
+      <is>
+        <t>All CMRs belong to authenticated user are displayed</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="93" sId="3" odxf="1" dxf="1">
+    <nc r="G4" t="inlineStr">
+      <is>
+        <t>DLT &amp; PVC roles can't see list of CMR:_x000D__x000D_Folder: Retest_3_April/bug4_dlt_pvc</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A4:XFD4" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="94" sId="3" odxf="1" dxf="1">
+    <nc r="A5">
+      <v>5</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="95" sId="3" odxf="1" dxf="1">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="96" sId="3" odxf="1" dxf="1">
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>View CMR details belong to_x000D__x000D_- CL_x000D_- CM_x000D_- DLT_x000D_- PVC</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="97" sId="3" odxf="1" dxf="1">
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>_x000D_1) Go to manage CMRs page_x000D_2) Select a CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="98" sId="3" odxf="1" dxf="1">
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>CL: CLAccount/123456_x000D_CM: CMAccount/123456_x000D_DLT: ???_x000D_PVC: ???</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="99" sId="3" odxf="1" dxf="1">
+    <nc r="F5" t="inlineStr">
+      <is>
+        <t>Detail page is display along with correct data</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="100" sId="3" odxf="1" dxf="1">
+    <nc r="G5" t="inlineStr">
+      <is>
+        <t>Because DLT &amp; PVC roles can't see list of CMR, can't execute</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A5:XFD5" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="101" sId="3" odxf="1" dxf="1">
+    <nc r="A6">
+      <v>6</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="102" sId="3" odxf="1" dxf="1">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="103" sId="3" odxf="1" dxf="1">
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t>Verify capacity to submit a CMR of CL</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="104" sId="3" odxf="1" dxf="1">
+    <nc r="D6" t="inlineStr">
+      <is>
+        <t>1) Login with CL account_x000D_2) Go to manage CMRs page_x000D_3) Select a CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="105" sId="3" odxf="1" dxf="1">
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>CL: CLAccount/123456</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="106" sId="3" odxf="1" dxf="1">
+    <nc r="F6" t="inlineStr">
+      <is>
+        <t>1) SEND is disabled if selected CMR whose status = Pending or Rejected_x000D_2) SEND is disabled for other status</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="107" sId="3" odxf="1" dxf="1">
+    <nc r="G6" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A6:XFD6" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="108" sId="3" odxf="1" dxf="1">
+    <nc r="A7">
+      <v>7</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="109" sId="3" odxf="1" dxf="1">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="110" sId="3" odxf="1" dxf="1">
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>Verify editing CMR of CL</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="111" sId="3" odxf="1" dxf="1">
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>1) Login with CL account_x000D_2) Go to manage CMRs page_x000D_3) Select a CMR_x000D_4) Change information to update_x000D_5) Click to Update button_x000D_6) Verify CMR detail after done</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="112" sId="3" odxf="1" dxf="1">
+    <nc r="E7" t="inlineStr">
+      <is>
+        <t>CL: CLAccount/123456</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="113" sId="3" odxf="1" dxf="1">
+    <nc r="F7" t="inlineStr">
+      <is>
+        <t>New data wiil be updated</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="114" sId="3" odxf="1" dxf="1">
+    <nc r="G7" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A7:XFD7" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="115" sId="3" odxf="1" dxf="1">
+    <nc r="A8">
+      <v>8</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="116" sId="3" odxf="1" dxf="1">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="117" sId="3" odxf="1" dxf="1">
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>Verify adding CMR ability</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="118" sId="3" odxf="1" dxf="1">
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>1) Login with CL account_x000D_2) Go to list annual course page_x000D_3) Find a annual course which don't have report yet_x000D_4) Click Report button in this row_x000D_5) Provide info of CMR_x000D_6) Click Add button_x000D_7) Go to list annual course_x000D_8) Go to CMR list_x000D_9) Go to details of that CMR and verify</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="119" sId="3" odxf="1" dxf="1">
+    <nc r="E8" t="inlineStr">
+      <is>
+        <t>CL: CLAccount/123456</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="120" sId="3" odxf="1" dxf="1">
+    <nc r="F8" t="inlineStr">
+      <is>
+        <t>1) Add button is disappeared for that annual course_x000D_2) Go to CMR management to see status of created CMR is pending</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="121" sId="3" odxf="1" dxf="1">
+    <nc r="G8" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A8:XFD8" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="122" sId="3" odxf="1" dxf="1">
+    <nc r="A9">
+      <v>9</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="123" sId="3" odxf="1" dxf="1">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="124" sId="3" odxf="1" dxf="1">
+    <nc r="C9" t="inlineStr">
+      <is>
+        <t>Verify validation when create CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="125" sId="3" odxf="1" dxf="1">
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>1) Login with CL account_x000D_2) Go to manage CMRs page_x000D_3) Select annual course which don't has CMR yet_x000D_4) Provide info of CMR_x000D_5) Click Add button</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="126" sId="3" odxf="1" dxf="1">
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>CL: CLAccount/123456_x000D_Data: Provide later</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="127" sId="3" odxf="1" dxf="1">
+    <nc r="F9" t="inlineStr">
+      <is>
+        <t>Error label is displayed and also prevent action add</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="128" sId="3" odxf="1" dxf="1">
+    <nc r="G9" t="inlineStr">
+      <is>
+        <t>Currently, there is no validation</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A9:XFD9" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="129" sId="3" odxf="1" dxf="1">
+    <nc r="A10">
+      <v>10</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="130" sId="3" odxf="1" dxf="1">
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="131" sId="3" odxf="1" dxf="1">
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>Verify ACR term is changed to CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="132" sId="3" odxf="1" dxf="1">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>Go to below pages to check:_x000D__x000D_1) List CMR_x000D_2) CMR details_x000D_3) Create CMR form</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="E10" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="133" sId="3" odxf="1" dxf="1">
+    <nc r="F10" t="inlineStr">
+      <is>
+        <t>ARC term is no longer existed</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="134" sId="3" odxf="1" dxf="1">
+    <nc r="G10" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A10:XFD10" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="135" sId="3" odxf="1" dxf="1">
+    <nc r="A11">
+      <v>11</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="136" sId="3" odxf="1" dxf="1">
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>UI</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="137" sId="3" odxf="1" dxf="1">
+    <nc r="C11" t="inlineStr">
+      <is>
+        <t>Verify page is responsive in_x000D__x000D_- View list CMR_x000D_- View list user_x000D_- View list of Course_x000D_- View list Annual Course</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="138" sId="3" odxf="1" dxf="1">
+    <nc r="D11" t="inlineStr">
+      <is>
+        <t>N/A</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="E11" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="139" sId="3" odxf="1" dxf="1">
+    <nc r="F11" t="inlineStr">
+      <is>
+        <t>Table will reorganize to columns and rows</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="140" sId="3" odxf="1" dxf="1">
+    <nc r="G11" t="inlineStr">
+      <is>
+        <t>List of CMR in CL roles still not affected_x000D__x000D_File: Retest_3_April/bug11_list_cmr_of_cl.png</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A11:XFD11" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="141" sId="3" odxf="1" dxf="1">
+    <nc r="A12">
+      <v>12</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="142" sId="3" odxf="1" dxf="1">
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>Users</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="143" sId="3" odxf="1" dxf="1">
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t>Verify DELETE capacity of admin</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="144" sId="3" odxf="1" dxf="1">
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>1) Login with Admin account_x000D_2) Go to User List_x000D_3) Verify visibility of "Delete" button</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="145" sId="3" odxf="1" dxf="1">
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>Admin: admin/admin</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="146" sId="3" odxf="1" dxf="1">
+    <nc r="F12" t="inlineStr">
+      <is>
+        <t>User "Admin" is impossible to delete</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="147" sId="3" odxf="1" dxf="1">
+    <nc r="G12" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A12:XFD12" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="148" sId="3" odxf="1" dxf="1">
+    <nc r="A13">
+      <v>13</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="149" sId="3" odxf="1" dxf="1">
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>Users</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="150" sId="3" odxf="1" dxf="1">
+    <nc r="C13" t="inlineStr">
+      <is>
+        <t>Verify confirmation before delete an user</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="151" sId="3" odxf="1" dxf="1">
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>1) Login with Admin account_x000D_2) Go to User List_x000D_3) Try to delete an user</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="152" sId="3" odxf="1" dxf="1">
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>Admin: admin/admin</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="153" sId="3" odxf="1" dxf="1">
+    <nc r="F13" t="inlineStr">
+      <is>
+        <t>Confirmation box must be displayed before perform action</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="154" sId="3" odxf="1" dxf="1">
+    <nc r="G13" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A13:XFD13" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="155" sId="3" odxf="1" dxf="1">
+    <nc r="A14">
+      <v>14</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="156" sId="3" odxf="1" dxf="1">
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t>UI</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="157" sId="3" odxf="1" dxf="1">
+    <nc r="C14" t="inlineStr">
+      <is>
+        <t>Verify display a status instead of a table without records on:_x000D__x000D_1) View list of CMR_x000D_2) View list of Course_x000D_3) View list of Annual Course_x000D_4) View list of Users</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="158" sId="3" odxf="1" dxf="1">
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>N/A</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="E14" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="159" sId="3" odxf="1" dxf="1">
+    <nc r="F14" t="inlineStr">
+      <is>
+        <t>A status must be displayed to warning user that there is no record.</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="160" sId="3" odxf="1" dxf="1">
+    <nc r="G14" t="inlineStr">
+      <is>
+        <t>Still happens with List of CMR:_x000D__x000D_File: Retest_3_April/bug14_cmr_list.png</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A14:XFD14" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="161" sId="3" odxf="1" dxf="1">
+    <nc r="A15">
+      <v>15</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="162" sId="3" odxf="1" dxf="1">
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Course </t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="163" sId="3" odxf="1" dxf="1">
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>View list of course</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="164" sId="3" odxf="1" dxf="1">
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>1) Login with Admin account_x000D_2) Click on Courses</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="165" sId="3" odxf="1" dxf="1">
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>Admin: admin/admin</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="166" sId="3" odxf="1" dxf="1">
+    <nc r="F15" t="inlineStr">
+      <is>
+        <t>List of course is displayed</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="167" sId="3" odxf="1" dxf="1">
+    <nc r="G15" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A15:XFD15" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="168" sId="3" odxf="1" dxf="1">
+    <nc r="A16">
+      <v>16</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="169" sId="3" odxf="1" dxf="1">
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="170" sId="3" odxf="1" dxf="1">
+    <nc r="C16" t="inlineStr">
+      <is>
+        <t>Verify confirmation before delete an CMR</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="171" sId="3" odxf="1" dxf="1">
+    <nc r="D16" t="inlineStr">
+      <is>
+        <t>1) Login with CL account_x000D_2) Go to CMR management page_x000D_3) Try to delete CMR whose status = Rejected</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="172" sId="3" odxf="1" dxf="1">
+    <nc r="E16" t="inlineStr">
+      <is>
+        <t>CL: CLAccount/123456</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="173" sId="3" odxf="1" dxf="1">
+    <nc r="F16" t="inlineStr">
+      <is>
+        <t>Confirmation box must be displayed before perform action</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="174" sId="3" odxf="1" dxf="1">
+    <nc r="G16" t="inlineStr">
+      <is>
+        <t>No confirmation was displayed</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A16:XFD16" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="175" sId="3" odxf="1" dxf="1">
+    <nc r="A17">
+      <v>17</v>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="176" sId="3" odxf="1" dxf="1">
+    <nc r="B17" t="inlineStr">
+      <is>
+        <t>Users</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="177" sId="3" odxf="1" dxf="1">
+    <nc r="C17" t="inlineStr">
+      <is>
+        <t>Verify EDIT capacity of admin</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="178" sId="3" odxf="1" dxf="1">
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>1) Login with Admin account_x000D_2) Go to User List_x000D_3) Verify visibility of "Edit" button</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="179" sId="3" odxf="1" dxf="1">
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>Admin: admin/admin</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="180" sId="3" odxf="1" dxf="1">
+    <nc r="F17" t="inlineStr">
+      <is>
+        <t>User "Admin" is impossible to edit</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="181" sId="3" odxf="1" dxf="1">
+    <nc r="G17" t="inlineStr">
+      <is>
+        <t>Admin is still editable_x000D__x000D_File: Retest_3_April/bug17_edit_admin.png</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="3" sqref="A17:XFD17" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A18" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B18" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C18" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="D18" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E18" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="F18" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="G18" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A18:XFD18" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A19" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B19" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C19" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="D19" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E19" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="F19" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="G19" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A19:XFD19" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A20" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B20" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C20" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="D20" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E20" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="F20" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="G20" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A20:XFD20" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A21" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B21" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C21" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="D21" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E21" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="F21" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="G21" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A21:XFD21" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A22" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B22" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C22" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="D22" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E22" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="F22" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="G22" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A22:XFD22" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A23" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B23" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C23" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="D23" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E23" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="F23" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="G23" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A23:XFD23" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A24" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B24" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C24" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="D24" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E24" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="F24" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="G24" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A24:XFD24" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A25" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B25" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C25" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="D25" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E25" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="F25" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="G25" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A25:XFD25" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A26" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B26" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C26" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="D26" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E26" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="F26" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="G26" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A26:XFD26" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A27" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B27" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C27" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="D27" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E27" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="F27" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="G27" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A27:XFD27" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A1:A1048576" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="B1:B1048576" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="C1:C1048576" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="D1:D1048576" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E1:E1048576" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="F1:F1048576" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="G1:G1048576" start="0" length="0">
+    <dxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="182" sId="3">
+    <nc r="G3" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="G3">
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2117,7 +6188,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{1838C403-2073-B345-AF2A-C4DFE7AC6FD9}" name="Microsoft Office User" id="-296958728" dateTime="2016-04-20T17:09:33"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2385,8 +6458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2842,8 +6915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3332,4 +7405,494 @@
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="153" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="152" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="247" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="114" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="76" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="133" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="38" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/Test Plan/TestPlan.xlsx
+++ b/Document/Test Plan/TestPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Data/Project/WebEnterprise/Document/Test Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chung1991/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -511,7 +511,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1838C403-2073-B345-AF2A-C4DFE7AC6FD9}" diskRevisions="1" revisionId="182" version="12">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5E3AD07A-4E08-4748-B4BA-645E15F142AF}" diskRevisions="1" revisionId="189" version="2">
   <header guid="{DECE7C86-8A06-5149-B59F-AA6EC9B63FA7}" dateTime="2016-04-03T14:46:33" maxSheetId="3" userName="Microsoft Office User" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -585,6 +585,13 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{5E3AD07A-4E08-4748-B4BA-645E15F142AF}" dateTime="2016-04-20T20:47:53" maxSheetId="4" userName="Microsoft Office User" r:id="rId13" minRId="183" maxRId="189">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -4803,6 +4810,165 @@
     </nc>
   </rcc>
   <rfmt sheetId="3" sqref="G3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="183" sId="3">
+    <oc r="G4" t="inlineStr">
+      <is>
+        <t>DLT &amp; PVC roles can't see list of CMR:_x000D__x000D_Folder: Retest_3_April/bug4_dlt_pvc</t>
+      </is>
+    </oc>
+    <nc r="G4" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="G4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="184" sId="3">
+    <oc r="G5" t="inlineStr">
+      <is>
+        <t>Because DLT &amp; PVC roles can't see list of CMR, can't execute</t>
+      </is>
+    </oc>
+    <nc r="G5" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="G5" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="G5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="185" sId="3">
+    <oc r="G9" t="inlineStr">
+      <is>
+        <t>Currently, there is no validation</t>
+      </is>
+    </oc>
+    <nc r="G9" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="G9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="186" sId="3">
+    <oc r="G11" t="inlineStr">
+      <is>
+        <t>List of CMR in CL roles still not affected_x000D__x000D_File: Retest_3_April/bug11_list_cmr_of_cl.png</t>
+      </is>
+    </oc>
+    <nc r="G11" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="G11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="187" sId="3">
+    <oc r="G14" t="inlineStr">
+      <is>
+        <t>Still happens with List of CMR:_x000D__x000D_File: Retest_3_April/bug14_cmr_list.png</t>
+      </is>
+    </oc>
+    <nc r="G14" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="G14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="188" sId="3">
+    <oc r="G16" t="inlineStr">
+      <is>
+        <t>No confirmation was displayed</t>
+      </is>
+    </oc>
+    <nc r="G16" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="G16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="189" sId="3">
+    <oc r="G17" t="inlineStr">
+      <is>
+        <t>Admin is still editable_x000D__x000D_File: Retest_3_April/bug17_edit_admin.png</t>
+      </is>
+    </oc>
+    <nc r="G17" t="inlineStr">
+      <is>
+        <t>Passed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="G17">
     <dxf>
       <fill>
         <patternFill>
@@ -6188,9 +6354,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{1838C403-2073-B345-AF2A-C4DFE7AC6FD9}" name="Microsoft Office User" id="-296958728" dateTime="2016-04-20T17:09:33"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7411,8 +7575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7515,8 +7679,8 @@
       <c r="F4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>76</v>
+      <c r="G4" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.25">
@@ -7538,8 +7702,8 @@
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>78</v>
+      <c r="G5" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.25">
@@ -7630,8 +7794,8 @@
       <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>82</v>
+      <c r="G9" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="95" x14ac:dyDescent="0.25">
@@ -7672,8 +7836,8 @@
       <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>84</v>
+      <c r="G11" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="76" x14ac:dyDescent="0.25">
@@ -7739,8 +7903,8 @@
       <c r="F14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>77</v>
+      <c r="G14" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="38" x14ac:dyDescent="0.25">
@@ -7785,11 +7949,11 @@
       <c r="F16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>81</v>
+      <c r="G16" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="76" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -7808,8 +7972,8 @@
       <c r="F17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>88</v>
+      <c r="G17" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
